--- a/ElasticNet/results/shap_summary_sorted_MCI.xlsx
+++ b/ElasticNet/results/shap_summary_sorted_MCI.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,91 +448,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Low_subj_spec_EPP_HPC_left</t>
+          <t>Alpha2_canon_RPD_CING_right</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33.67131853337112</v>
+        <v>581.7281577183247</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IAF_ORB_left</t>
+          <t>Alpha2_canon_RPD_CING_left</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.9376700682447</v>
+        <v>301.1527281362613</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>TF_INS_left</t>
+          <t>Low_subj_spec_RPD_OCC_left</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>28.50535017632176</v>
+        <v>298.1316685029693</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IAF_INS_right</t>
+          <t>High_subj_spec_EPP_OCC_left</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>28.39809401125324</v>
+        <v>244.8475452566995</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TF_IFG_right</t>
+          <t>Low_subj_spec_RPD_PARIET_left</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26.8815675317363</v>
+        <v>242.8207361826841</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IAF_HPC_left</t>
+          <t>Low_subj_spec_EPP_OCC_right</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.87366713978622</v>
+        <v>226.709844971229</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Low_subj_spec_EPP_OCC_right</t>
+          <t>High_subj_spec_RPD_OCC_left</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24.37769584999537</v>
+        <v>171.4136614861318</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TF_HPC_left</t>
+          <t>Alpha2_canon_EPP_PARIET_left</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23.31898744867599</v>
+        <v>161.4460343949428</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IAF_HPC_right</t>
+          <t>IAF_ORB_left</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21.73046318949923</v>
+        <v>159.6728176423065</v>
       </c>
     </row>
     <row r="11">
@@ -542,307 +542,307 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21.48345515759229</v>
+        <v>153.4398141354437</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IAF_INS_left</t>
+          <t>Low_subj_spec_RPD_CING_left</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21.40231569902702</v>
+        <v>150.9699511861891</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>TF_ORB_right</t>
+          <t>High_subj_spec_RPD_CING_left</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>21.28102060994329</v>
+        <v>149.1386555541943</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Low_subj_spec_EPP_OCC_left</t>
+          <t>Low_subj_spec_RPD_HPC_left</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>17.97143097694194</v>
+        <v>132.3788660503571</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TF_SFG_right</t>
+          <t>Alpha2_canon_EPP_OCC_left</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>17.60163781639809</v>
+        <v>128.2524749777868</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Low_subj_spec_EPP_PARIET_right</t>
+          <t>Alpha2_canon_RPD_PARIET_left</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.89211554965375</v>
+        <v>125.3126026590738</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Alpha2_canon_RPD_PARIET_left</t>
+          <t>High_subj_spec_EPP_CING_left</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16.13002627867253</v>
+        <v>116.0493564859548</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Alpha2_canon_EPP_PARIET_left</t>
+          <t>IAF_OCC_right</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16.12866903847209</v>
+        <v>115.2810200711214</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Low_subj_spec_EPP_CING_right</t>
+          <t>IAF_INS_left</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.30204340961064</v>
+        <v>98.29214181906559</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Low_subj_spec_RPD_HPC_left</t>
+          <t>Alpha2_canon_RPD_OCC_left</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>15.29731006792373</v>
+        <v>91.61624614554967</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Low_subj_spec_EPP_CING_left</t>
+          <t>TF_IFG_right</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>15.20168844303381</v>
+        <v>87.43343332382295</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>High_subj_spec_EPP_HPC_right</t>
+          <t>IAF_INS_right</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>14.80740472364625</v>
+        <v>84.30964092159151</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>High_subj_spec_RPD_HPC_right</t>
+          <t>Low_subj_spec_EPP_HPC_left</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>14.80502350918224</v>
+        <v>83.0951606710809</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Alpha2_canon_EPP_OCC_right</t>
+          <t>IAF_ORB_right</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>13.47613977412888</v>
+        <v>82.61204581732551</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Alpha2_canon_RPD_OCC_right</t>
+          <t>Alpha2_canon_EPP_PARIET_right</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>13.4755366507631</v>
+        <v>64.53078449544711</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>High_subj_spec_EPP_HPC_left</t>
+          <t>IAF_SFG_right</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>12.60398586138402</v>
+        <v>63.89778091826327</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>High_subj_spec_RPD_HPC_left</t>
+          <t>High_subj_spec_RPD_HPC_right</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>12.60238335576451</v>
+        <v>58.97374320306398</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Alpha2_canon_RPD_PARIET_right</t>
+          <t>Alpha2_canon_RPD_HPC_right</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>12.03243461368886</v>
+        <v>53.50713914922958</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Alpha2_canon_EPP_PARIET_right</t>
+          <t>Low_subj_spec_RPD_PARIET_right</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>12.0313848641106</v>
+        <v>48.50738597248986</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>IAF_SFG_right</t>
+          <t>Alpha2_canon_RPD_OCC_right</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>11.39203307297756</v>
+        <v>47.13105238607639</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TF_HPC_right</t>
+          <t>Alpha2_canon_RPD_PARIET_right</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>10.87011225009275</v>
+        <v>46.71072732299924</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Alpha2_canon_RPD_HPC_right</t>
+          <t>IAF_HPC_right</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>10.78497488553568</v>
+        <v>46.16472290751523</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Alpha2_canon_EPP_HPC_right</t>
+          <t>High_subj_spec_EPP_HPC_right</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>10.78342584310174</v>
+        <v>45.11416252112037</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Low_subj_spec_RPD_PARIET_right</t>
+          <t>Alpha2_canon_EPP_OCC_right</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>10.46238314419319</v>
+        <v>44.21435785607578</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Alpha2_canon_RPD_CING_left</t>
+          <t>TF_INS_right</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>10.25034858361145</v>
+        <v>42.98826194315848</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IAF_OCC_right</t>
+          <t>Alpha2_canon_EPP_HPC_right</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>10.17297481715923</v>
+        <v>42.94562713437578</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>High_subj_spec_EPP_PARIET_right</t>
+          <t>IAF_IFG_right</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>9.605494777789785</v>
+        <v>41.12447685915201</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>High_subj_spec_RPD_PARIET_right</t>
+          <t>Low_subj_spec_RPD_CING_right</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>9.603405139829453</v>
+        <v>34.94216488654336</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TF_SFG_left</t>
+          <t>High_subj_spec_EPP_OCC_right</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>9.596033049136777</v>
+        <v>34.00513509416384</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TF_ORB_left</t>
+          <t>IAF_HPC_left</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>9.209502156153457</v>
+        <v>29.06919703424932</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>IAF_ORB_right</t>
+          <t>High_subj_spec_RPD_OCC_right</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>8.943979865544202</v>
+        <v>27.58225740803011</v>
       </c>
     </row>
     <row r="42">
@@ -852,317 +852,197 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8.900988161483586</v>
+        <v>26.99506691285077</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>IAF_IFG_left</t>
+          <t>TF_ORB_left</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>8.732765701454129</v>
+        <v>18.29082545287292</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>High_subj_spec_RPD_CING_right</t>
+          <t>High_subj_spec_EPP_PARIET_left</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>8.579807932703918</v>
+        <v>15.28407363627726</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>High_subj_spec_EPP_CING_right</t>
+          <t>High_subj_spec_RPD_HPC_left</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>8.577394095341482</v>
+        <v>14.1274055431896</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>IAF_IFG_right</t>
+          <t>High_subj_spec_EPP_HPC_left</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>8.484808923569599</v>
+        <v>14.10443645899976</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Low_subj_spec_EPP_PARIET_left</t>
+          <t>High_subj_spec_RPD_PARIET_left</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>8.473866778338385</v>
+        <v>13.01416975788367</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>TF_MFG_right</t>
+          <t>High_subj_spec_RPD_PARIET_right</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>7.796412138364605</v>
+        <v>12.22710273307547</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Alpha2_canon_RPD_HPC_left</t>
+          <t>Alpha2_canon_EPP_HPC_left</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>7.666094025786662</v>
+        <v>11.4415448180199</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Alpha2_canon_EPP_HPC_left</t>
+          <t>IAF_MFG_left</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>7.664664692330277</v>
+        <v>11.43294416612654</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>IAF_SFG_left</t>
+          <t>Alpha2_canon_RPD_HPC_left</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>7.397926864282924</v>
+        <v>10.85045845316503</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>High_subj_spec_RPD_OCC_right</t>
+          <t>TF_HPC_left</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>6.986066286219577</v>
+        <v>10.83987780603529</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>High_subj_spec_EPP_OCC_right</t>
+          <t>TF_ORB_right</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>6.983959113261144</v>
+        <v>9.81838817246604</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Low_subj_spec_RPD_CING_right</t>
+          <t>IAF_IFG_left</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>5.791385981119328</v>
+        <v>9.380797247125958</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Alpha2_canon_EPP_OCC_left</t>
+          <t>Low_subj_spec_RPD_OCC_right</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>5.774646761497443</v>
+        <v>7.973811933530178</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Alpha2_canon_RPD_OCC_left</t>
+          <t>High_subj_spec_EPP_PARIET_right</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>5.773776931205341</v>
+        <v>7.880381377804246</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Alpha2_canon_RPD_CING_right</t>
+          <t>IAF_SFG_left</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>5.61872673832023</v>
+        <v>7.665916118164201</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>High_subj_spec_EPP_PARIET_left</t>
+          <t>TF_HPC_right</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>5.355197190692865</v>
+        <v>7.618768879270249</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>High_subj_spec_RPD_PARIET_left</t>
+          <t>High_subj_spec_EPP_CING_right</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>5.353100748265033</v>
+        <v>6.242123883055716</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Low_subj_spec_RPD_OCC_right</t>
+          <t>High_subj_spec_RPD_CING_right</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>4.454592217919977</v>
+        <v>5.89010487901327</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>High_subj_spec_EPP_CING_left</t>
+          <t>IAF_MFG_right</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>3.744363519498743</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>High_subj_spec_RPD_CING_left</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>3.74218135523629</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Low_subj_spec_EPP_HPC_right</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>3.635888924160278</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>TF_MFG_left</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>3.613571678850103</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>IAF_MFG_left</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>3.031656030880651</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>TF_IFG_left</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>2.203182346464021</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Low_subj_spec_RPD_PARIET_left</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>1.4442368353077</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Low_subj_spec_RPD_OCC_left</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>1.276282370781856</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>TF_INS_right</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>1.268253806492303</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>IAF_MFG_right</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>1.03130629033302</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Low_subj_spec_RPD_CING_left</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0.4595196571445342</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>High_subj_spec_EPP_OCC_left</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>0.3992422691871984</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>High_subj_spec_RPD_OCC_left</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0.3978360240681304</v>
+        <v>5.352903776001697</v>
       </c>
     </row>
   </sheetData>
